--- a/Convocazioni/U16P/3_FUTBOL_TALENTI.xlsx
+++ b/Convocazioni/U16P/3_FUTBOL_TALENTI.xlsx
@@ -796,7 +796,7 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="30" t="inlineStr">
         <is>
-          <t>FUTBOL_TALENTI</t>
+          <t>FUTBOL TALENTI</t>
         </is>
       </c>
       <c r="D10" s="7" t="n"/>
@@ -906,7 +906,11 @@
       <c r="B22" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="18" t="inlineStr"/>
+      <c r="C22" s="18" t="inlineStr">
+        <is>
+          <t>Giovanni BOCCIA</t>
+        </is>
+      </c>
       <c r="D22" s="7" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -914,7 +918,11 @@
       <c r="B23" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C23" s="18" t="inlineStr"/>
+      <c r="C23" s="18" t="inlineStr">
+        <is>
+          <t>Michele CARUSO</t>
+        </is>
+      </c>
       <c r="D23" s="7" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -922,7 +930,11 @@
       <c r="B24" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C24" s="18" t="inlineStr"/>
+      <c r="C24" s="18" t="inlineStr">
+        <is>
+          <t>Mattia CASTELLUCCI</t>
+        </is>
+      </c>
       <c r="D24" s="7" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -930,7 +942,11 @@
       <c r="B25" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C25" s="18" t="inlineStr"/>
+      <c r="C25" s="18" t="inlineStr">
+        <is>
+          <t>Gabriele CAU</t>
+        </is>
+      </c>
       <c r="D25" s="7" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -938,7 +954,11 @@
       <c r="B26" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="C26" s="18" t="inlineStr"/>
+      <c r="C26" s="18" t="inlineStr">
+        <is>
+          <t>Lorenzo CAU</t>
+        </is>
+      </c>
       <c r="D26" s="7" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -946,7 +966,11 @@
       <c r="B27" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="C27" s="18" t="inlineStr"/>
+      <c r="C27" s="18" t="inlineStr">
+        <is>
+          <t>Gabriele CESANDRI</t>
+        </is>
+      </c>
       <c r="D27" s="7" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -954,7 +978,11 @@
       <c r="B28" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="C28" s="18" t="inlineStr"/>
+      <c r="C28" s="18" t="inlineStr">
+        <is>
+          <t>Vincenzo CIRILLO</t>
+        </is>
+      </c>
       <c r="D28" s="7" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -962,7 +990,11 @@
       <c r="B29" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="C29" s="18" t="inlineStr"/>
+      <c r="C29" s="18" t="inlineStr">
+        <is>
+          <t>Julian GENTILI</t>
+        </is>
+      </c>
       <c r="D29" s="7" t="n"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -970,7 +1002,11 @@
       <c r="B30" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="C30" s="18" t="inlineStr"/>
+      <c r="C30" s="18" t="inlineStr">
+        <is>
+          <t>Jacopo GENTILI</t>
+        </is>
+      </c>
       <c r="D30" s="7" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -978,7 +1014,11 @@
       <c r="B31" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="C31" s="18" t="inlineStr"/>
+      <c r="C31" s="18" t="inlineStr">
+        <is>
+          <t>Alessio IGLIOZZI</t>
+        </is>
+      </c>
       <c r="D31" s="7" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -986,7 +1026,11 @@
       <c r="B32" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="C32" s="18" t="inlineStr"/>
+      <c r="C32" s="18" t="inlineStr">
+        <is>
+          <t>Gianni LO PICCOLO</t>
+        </is>
+      </c>
       <c r="D32" s="7" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -994,7 +1038,11 @@
       <c r="B33" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="C33" s="18" t="inlineStr"/>
+      <c r="C33" s="18" t="inlineStr">
+        <is>
+          <t>Matteo  FERRAUTI</t>
+        </is>
+      </c>
       <c r="D33" s="7" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -1002,7 +1050,11 @@
       <c r="B34" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="C34" s="18" t="inlineStr"/>
+      <c r="C34" s="18" t="inlineStr">
+        <is>
+          <t>Pietro MANCINI</t>
+        </is>
+      </c>
       <c r="D34" s="7" t="n"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -1010,7 +1062,11 @@
       <c r="B35" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="C35" s="18" t="inlineStr"/>
+      <c r="C35" s="18" t="inlineStr">
+        <is>
+          <t>Flavio MOZZI</t>
+        </is>
+      </c>
       <c r="D35" s="7" t="n"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -1018,7 +1074,11 @@
       <c r="B36" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="C36" s="18" t="inlineStr"/>
+      <c r="C36" s="18" t="inlineStr">
+        <is>
+          <t>Edoardo PALANCA</t>
+        </is>
+      </c>
       <c r="D36" s="7" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -1026,7 +1086,11 @@
       <c r="B37" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="C37" s="18" t="inlineStr"/>
+      <c r="C37" s="18" t="inlineStr">
+        <is>
+          <t>Davide PENNACCHINI</t>
+        </is>
+      </c>
       <c r="D37" s="7" t="n"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -1034,7 +1098,11 @@
       <c r="B38" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="C38" s="18" t="inlineStr"/>
+      <c r="C38" s="18" t="inlineStr">
+        <is>
+          <t>Daniele PICARIELLO</t>
+        </is>
+      </c>
       <c r="D38" s="7" t="n"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -1042,7 +1110,11 @@
       <c r="B39" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="C39" s="18" t="inlineStr"/>
+      <c r="C39" s="18" t="inlineStr">
+        <is>
+          <t>Lorenzo RABBI</t>
+        </is>
+      </c>
       <c r="D39" s="7" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -1050,7 +1122,11 @@
       <c r="B40" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="C40" s="18" t="inlineStr"/>
+      <c r="C40" s="18" t="inlineStr">
+        <is>
+          <t>Mathias NICOLETTI</t>
+        </is>
+      </c>
       <c r="D40" s="7" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -1058,7 +1134,11 @@
       <c r="B41" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="C41" s="18" t="inlineStr"/>
+      <c r="C41" s="18" t="inlineStr">
+        <is>
+          <t>Davide RIFERZI</t>
+        </is>
+      </c>
       <c r="D41" s="7" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -1092,7 +1172,7 @@
       </c>
       <c r="C45" s="34" t="inlineStr">
         <is>
-          <t>Edoardo BALESTRIERI, Giovanni BOCCIA, Lorenzo CAPANNOLO, Michele CARUSO, Riccardo CASTELLANI, Mattia CASTELLUCCI, Gabriele CAU, Lorenzo CAU, Gabriele CESANDRI, Vincenzo CIRILLO, Enea COLANGELI, Matteo  FERRAUTI, Julian GENTILI, Jacopo GENTILI, Gabriele GIANNOPOLO, Alessio IGLIOZZI, Gianni LO PICCOLO, Pietro MANCINI, Bruno MARRUCCI, Cristiano MIGENI, Lorenzo MIGENI, Flavio MOZZI, Edoardo PALANCA, Davide PENNACCHINI, Daniele PICARIELLO, Lorenzo RABBI, Davide RIFERZI, Mathias NICOLETTI, Tommaso BACIU, Valerio CAGNUCCI, Mirko BARONE</t>
+          <t>Edoardo BALESTRIERI, Lorenzo CAPANNOLO, Riccardo CASTELLANI, Enea COLANGELI, Gabriele GIANNOPOLO, Bruno MARRUCCI, Cristiano MIGENI, Lorenzo MIGENI, Tommaso BACIU, Valerio CAGNUCCI, Mirko BARONE, Eyad ELWANY</t>
         </is>
       </c>
       <c r="D45" s="7" t="n"/>
@@ -1150,7 +1230,7 @@
       </c>
       <c r="C52" s="18" t="inlineStr">
         <is>
-          <t>Vincenzo GIANNOPOLO</t>
+          <t>Vincenzo GIANNOPOLI</t>
         </is>
       </c>
       <c r="D52" s="7" t="n"/>
